--- a/biology/Botanique/Gren/Gren..xlsx
+++ b/biology/Botanique/Gren/Gren..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Charles Marie Grenier, alias Charles Grenier, né le 4 novembre 1808 à Besançon et mort à Besançon le 9 novembre 1875, est un botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il effectue de brillantes études secondaires puis s'inscrit à l'école de médecine de Besançon où il obtient le titre de docteur en 1836.
 Il passe l'été 1836 à Eaux-Bonnes et y fait la rencontre du pâtre-herboriste Pierrine Gaston-Sacaze. Ils garderont une relation épistolaire.
@@ -549,19 +563,21 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Souvenirs botaniques des environs de Eaux-Bonnes, actes de la Société linnéenne de Bordeaux, t.9, 15 juin 1837
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souvenirs botaniques des environs de Eaux-Bonnes, actes de la Société linnéenne de Bordeaux, t.9, 15 juin 1837
 Observations sur les genres Moenchia et Malachium, 1839, 8 p.
 Thèse de géographie botanique du département du Doubs, 1844
 Fragment de voyage botanique dans les Alpes du Dauphiné (1848), discours de réception à l'Académie de Besançon, 1849, 76 p.
-Florula Massiliensis advena: Florule exotique des environs de Marseille, extrait des Mémoires de la Société d’Émulation du département du Doubs, Séance du 13 juin 1857, Besançon : Dodivers, 1857 [1]
+Florula Massiliensis advena: Florule exotique des environs de Marseille, extrait des Mémoires de la Société d’Émulation du département du Doubs, Séance du 13 juin 1857, Besançon : Dodivers, 1857 
 Flore de la chaine jurassique
-1re partie : Dicotylées - Dialypétales, Paris : F. Savy &amp; Besançon : Dodivers, 1865 [2].
+1re partie : Dicotylées - Dialypétales, Paris : F. Savy &amp; Besançon : Dodivers, 1865 .
 Flore de France: ou Description des plantes qui croissent naturellement en France et en Corse, avec Dominique Godron :
-Tome 1, Paris : J.-B. Baillière, 1848 [3]
-Tome 2, Besançon : Sainte-Agathe aîne &amp; Lyon : Charles Savy, 1850 [4]
-Tome 3, Paris : F. Savy, 1853 [5]</t>
+Tome 1, Paris : J.-B. Baillière, 1848 
+Tome 2, Besançon : Sainte-Agathe aîne &amp; Lyon : Charles Savy, 1850 
+Tome 3, Paris : F. Savy, 1853 </t>
         </is>
       </c>
     </row>
